--- a/testes/nomesatp.xlsx
+++ b/testes/nomesatp.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="nomesATP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1292,7 +1292,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testes/nomesatp.xlsx
+++ b/testes/nomesatp.xlsx
@@ -1292,7 +1292,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testes/nomesatp.xlsx
+++ b/testes/nomesatp.xlsx
@@ -1292,7 +1292,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
